--- a/artfynd/A 64103-2018.xlsx
+++ b/artfynd/A 64103-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112243469</v>
+        <v>112243463</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>77389</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>410486</v>
+        <v>410608</v>
       </c>
       <c r="R2" t="n">
-        <v>6710828</v>
+        <v>6710914</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112243463</v>
+        <v>112243462</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>78228</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112243462</v>
+        <v>112243469</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>77636</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,21 +900,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>410608</v>
+        <v>410486</v>
       </c>
       <c r="R4" t="n">
-        <v>6710914</v>
+        <v>6710828</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>112243476</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>77389</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112243460</v>
+        <v>112243468</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>77636</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,21 +1104,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>410598</v>
+        <v>410566</v>
       </c>
       <c r="R6" t="n">
-        <v>6710899</v>
+        <v>6710872</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112243468</v>
+        <v>112243461</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>77389</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1206,21 +1206,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>410566</v>
+        <v>410598</v>
       </c>
       <c r="R7" t="n">
-        <v>6710872</v>
+        <v>6710899</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112243461</v>
+        <v>112243460</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>78228</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1308,21 +1308,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>

--- a/artfynd/A 64103-2018.xlsx
+++ b/artfynd/A 64103-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112243463</v>
+        <v>112243462</v>
       </c>
       <c r="B2" t="n">
-        <v>77389</v>
+        <v>78242</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112243462</v>
+        <v>112243461</v>
       </c>
       <c r="B3" t="n">
-        <v>78228</v>
+        <v>77403</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>410608</v>
+        <v>410598</v>
       </c>
       <c r="R3" t="n">
-        <v>6710914</v>
+        <v>6710899</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112243469</v>
+        <v>112243463</v>
       </c>
       <c r="B4" t="n">
-        <v>77636</v>
+        <v>77403</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,21 +900,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>410486</v>
+        <v>410608</v>
       </c>
       <c r="R4" t="n">
-        <v>6710828</v>
+        <v>6710914</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112243476</v>
+        <v>112243468</v>
       </c>
       <c r="B5" t="n">
-        <v>77389</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>410524</v>
+        <v>410566</v>
       </c>
       <c r="R5" t="n">
-        <v>6710795</v>
+        <v>6710872</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112243468</v>
+        <v>112243469</v>
       </c>
       <c r="B6" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>410566</v>
+        <v>410486</v>
       </c>
       <c r="R6" t="n">
-        <v>6710872</v>
+        <v>6710828</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112243461</v>
+        <v>112243476</v>
       </c>
       <c r="B7" t="n">
-        <v>77389</v>
+        <v>77403</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>410598</v>
+        <v>410524</v>
       </c>
       <c r="R7" t="n">
-        <v>6710899</v>
+        <v>6710795</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1295,7 +1295,7 @@
         <v>112243460</v>
       </c>
       <c r="B8" t="n">
-        <v>78228</v>
+        <v>78242</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>

--- a/artfynd/A 64103-2018.xlsx
+++ b/artfynd/A 64103-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112243462</v>
+        <v>112243463</v>
       </c>
       <c r="B2" t="n">
-        <v>78242</v>
+        <v>77403</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112243461</v>
+        <v>112243468</v>
       </c>
       <c r="B3" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>410598</v>
+        <v>410566</v>
       </c>
       <c r="R3" t="n">
-        <v>6710899</v>
+        <v>6710872</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112243463</v>
+        <v>112243462</v>
       </c>
       <c r="B4" t="n">
-        <v>77403</v>
+        <v>78242</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,21 +900,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112243468</v>
+        <v>112243461</v>
       </c>
       <c r="B5" t="n">
-        <v>77650</v>
+        <v>77403</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>410566</v>
+        <v>410598</v>
       </c>
       <c r="R5" t="n">
-        <v>6710872</v>
+        <v>6710899</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112243469</v>
+        <v>112243460</v>
       </c>
       <c r="B6" t="n">
-        <v>77650</v>
+        <v>78242</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,21 +1104,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>410486</v>
+        <v>410598</v>
       </c>
       <c r="R6" t="n">
-        <v>6710828</v>
+        <v>6710899</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112243460</v>
+        <v>112243469</v>
       </c>
       <c r="B8" t="n">
-        <v>78242</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1308,21 +1308,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>410598</v>
+        <v>410486</v>
       </c>
       <c r="R8" t="n">
-        <v>6710899</v>
+        <v>6710828</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
